--- a/model/top_features.xlsx
+++ b/model/top_features.xlsx
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rolling62_adjustedclose</t>
+          <t>roa_ratio</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02579431772379107</v>
+        <v>0.0248249691910198</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>investmentIncomeNet</t>
+          <t>totalShareholderEquity</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.02278141958369525</v>
+        <v>0.02169166062024962</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>debt_ratio</t>
+          <t>dividendPayout</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.02213186384809791</v>
+        <v>0.02137736843604986</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operating_margin_ratio</t>
+          <t>debt_to_equity_ratio</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01720338999794696</v>
+        <v>0.02018307374713075</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>costOfRevenue</t>
+          <t>days_in_inventory_ratio</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01702070482965415</v>
+        <v>0.01715472463573144</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>current_ratio</t>
+          <t>dividendPayoutCommonStock</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01621259089290842</v>
+        <v>0.016839247145606</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>changeInInventory</t>
+          <t>shortLongTermDebtTotal</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01618615686858286</v>
+        <v>0.01590789099865896</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>debt_to_equity_ratio</t>
+          <t>changeInReceivables</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01511872305302777</v>
+        <v>0.01559588996543995</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>longTermInvestments</t>
+          <t>longTermDebt</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01497997113081269</v>
+        <v>0.01482479298139169</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>changeInExchangeRate</t>
+          <t>debt_ratio</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01452430222426549</v>
+        <v>0.01474723841381876</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>totalShareholderEquity</t>
+          <t>researchAndDevelopment</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01445634752243465</v>
+        <v>0.01465474488339081</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>investments</t>
+          <t>totalLiabilities</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01440671679305446</v>
+        <v>0.01404703112129437</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>propertyPlantEquipment</t>
+          <t>roe_ratio</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01421194423473894</v>
+        <v>0.01393253643737992</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cashflowFromFinancing</t>
+          <t>inventory_turnover_ratio</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01403419319848091</v>
+        <v>0.01366132305137328</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>changeInOperatingLiabilities</t>
+          <t>changeInOperatingAssets</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01318894447542827</v>
+        <v>0.01361935240057666</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cash_ratio</t>
+          <t>changeInInventory</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0130678070614523</v>
+        <v>0.01292161401567595</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>operatingCashflow</t>
+          <t>depreciationDepletionAndAmortization</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01293154535889514</v>
+        <v>0.01278764142651996</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>interestIncome</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01256763184442541</v>
+        <v>0.01264865294724237</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>days_in_inventory_ratio</t>
+          <t>netInterestIncome</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01242679776788935</v>
+        <v>0.01237410401715046</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>paymentsForOperatingActivities</t>
+          <t>nonInterestIncome</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01237119956822774</v>
+        <v>0.01235821756312203</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>commonStockSharesOutstanding</t>
+          <t>interestExpense</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01224840779374484</v>
+        <v>0.01233500084563771</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>roe_ratio</t>
+          <t>cashAndShortTermInvestments</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01202963967288726</v>
+        <v>0.01231512177360789</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>inventory_turnover_ratio</t>
+          <t>shortTermDebt</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01190567930872977</v>
+        <v>0.01225510033389238</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>cash_ratio</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01157124085985069</v>
+        <v>0.01200254014003802</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>costofGoodsAndServicesSold</t>
+          <t>operating_cash_flow_ratio</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01150707133389587</v>
+        <v>0.01181605802702887</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>interest_coverage_ratio</t>
+          <t>commonStockSharesOutstanding</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01144060587442974</v>
+        <v>0.01162524522780247</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>changeInOperatingAssets</t>
+          <t>asset_turnover_ratio</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01140639426406957</v>
+        <v>0.01141180421410128</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cashAndCashEquivalentsAtCarryingValue</t>
+          <t>proceedsFromRepurchaseOfEquity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01131662447752069</v>
+        <v>0.01124508078328057</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>asset_turnover_ratio</t>
+          <t>interestIncome</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01121054101907789</v>
+        <v>0.01122356006231463</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>changeInCashAndCashEquivalents</t>
+          <t>changeInExchangeRate</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0110376767001976</v>
+        <v>0.01102876816298098</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>totalCurrentAssets</t>
+          <t>changeInCashAndCashEquivalents</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01079313727289203</v>
+        <v>0.01087888812582612</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>goodwill</t>
+          <t>otherNonCurrentLiabilities</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01066966534738126</v>
+        <v>0.0108222841266686</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>otherCurrentLiabilities</t>
+          <t>rolling62_adjustedclose</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01058497301133947</v>
+        <v>0.0106475790440396</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>operatingIncome</t>
+          <t>shortTermInvestments</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0105640869292919</v>
+        <v>0.01063683006524011</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>retainedEarnings</t>
+          <t>commonStock</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01034418976829958</v>
+        <v>0.01062268394296781</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>operating_cash_flow_ratio</t>
+          <t>totalNonCurrentAssets</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01034253699593269</v>
+        <v>0.01039852060008312</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gross_margin_ratio</t>
+          <t>deferredRevenue</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01028907984747501</v>
+        <v>0.01036766684913142</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>changeInReceivables</t>
+          <t>totalAssets</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01024713966797159</v>
+        <v>0.01035595456047759</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>totalAssets</t>
+          <t>otherNonOperatingIncome</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01021536300553485</v>
+        <v>0.01025876742262027</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>totalNonCurrentAssets</t>
+          <t>investments</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01021530228587229</v>
+        <v>0.01021494703915297</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>grossProfit</t>
+          <t>cashAndCashEquivalentsAtCarryingValue</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01021428755501235</v>
+        <v>0.01012635568037157</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>shortTermDebt</t>
+          <t>longTermInvestments</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0102013323117567</v>
+        <v>0.01001493571266505</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>currentNetReceivables</t>
+          <t>netIncomeFromContinuingOperations</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01015932690446716</v>
+        <v>0.009735709002052223</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>commonStock</t>
+          <t>interestAndDebtExpense</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01014789727083023</v>
+        <v>0.009699144735214825</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>sellingGeneralAndAdministrative</t>
+          <t>totalRevenue</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.009923502046769566</v>
+        <v>0.009684439339136311</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>capitalLeaseObligations</t>
+          <t>ebitda</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.009915047205033667</v>
+        <v>0.009594672787122532</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>otherNonCurrentAssets</t>
+          <t>capitalLeaseObligations</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.009836302212876296</v>
+        <v>0.009563291425406214</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nonInterestIncome</t>
+          <t>paymentsForOperatingActivities</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.009797953323954434</v>
+        <v>0.00946505242770827</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>roa_ratio</t>
+          <t>grossProfit</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.009521865992678709</v>
+        <v>0.00944395240896562</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>totalRevenue</t>
+          <t>averageInventory</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.009408913394657263</v>
+        <v>0.009192349785639502</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>otherNonOperatingIncome</t>
+          <t>changeInOperatingLiabilities</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.009330281906061699</v>
+        <v>0.009160165888344653</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depreciationAndAmortization</t>
+          <t>currentNetReceivables</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.00931162812812455</v>
+        <v>0.009115316084694553</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>proceedsFromRepurchaseOfEquity</t>
+          <t>currentDebt</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.009048392288305895</v>
+        <v>0.009096491762744678</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>currentDebt</t>
+          <t>costOfRevenue</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.008920250748835545</v>
+        <v>0.008862187451395701</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>shortLongTermDebtTotal</t>
+          <t>costofGoodsAndServicesSold</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.008764689544841223</v>
+        <v>0.008829447198202355</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>paymentsForRepurchaseOfEquity</t>
+          <t>comprehensiveIncomeNetOfTax</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.008538327416217248</v>
+        <v>0.008824385917070106</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>shortTermInvestments</t>
+          <t>operating_margin_ratio</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.008396385963413766</v>
+        <v>0.008686248974924239</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>interestExpense</t>
+          <t>totalNonCurrentLiabilities</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.008380869194525669</v>
+        <v>0.008657569658428257</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>deferredRevenue</t>
+          <t>cashflowFromFinancing</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.008376226516420426</v>
+        <v>0.008646149376137828</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>paymentsForRepurchaseOfCommonStock</t>
+          <t>current_ratio</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.00835339268579767</v>
+        <v>0.008551912972217439</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ebitda</t>
+          <t>capitalExpenditures</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.00831050452824581</v>
+        <v>0.008491272476642369</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>capitalExpenditures</t>
+          <t>retainedEarnings</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.008287131783070034</v>
+        <v>0.008425293289325494</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>totalCurrentLiabilities</t>
+          <t>paymentsForRepurchaseOfCommonStock</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.008197156134067822</v>
+        <v>0.008339528763743935</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>depreciationDepletionAndAmortization</t>
+          <t>operatingCashflow</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.008120056510496227</v>
+        <v>0.008252720331482012</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>otherCurrentAssets</t>
+          <t>intangibleAssetsExcludingGoodwill</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.007987111121487634</v>
+        <v>0.008232296988706955</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>otherNonCurrentLiabilities</t>
+          <t>gics_sector_Information Technology</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.007972182952885421</v>
+        <v>0.008226370057701221</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>acid_test_ratio</t>
+          <t>goodwill</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.00790139239735182</v>
+        <v>0.008211076490148824</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cashflowFromInvestment</t>
+          <t>intangibleAssets</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.007871754870561111</v>
+        <v>0.008157088950120111</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dividendPayoutCommonStock</t>
+          <t>gross_margin_ratio</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.007834757416841913</v>
+        <v>0.008155216609911942</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>intangibleAssets</t>
+          <t>operatingExpenses</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.007809198224613393</v>
+        <v>0.00810429148171035</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>longTermDebt</t>
+          <t>otherCurrentLiabilities</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.007800793991969448</v>
+        <v>0.008023307266160991</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>averageInventory</t>
+          <t>longTermDebtNoncurrent</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.007712169479979132</v>
+        <v>0.007912827321574049</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>proceedsFromRepaymentsOfShortTermDebt</t>
+          <t>sellingGeneralAndAdministrative</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.007692812100443225</v>
+        <v>0.007862377799965861</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>intangibleAssetsExcludingGoodwill</t>
+          <t>propertyPlantEquipment</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.00758326052153808</v>
+        <v>0.007778333365523056</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>incomeTaxExpense</t>
+          <t>accumulatedDepreciationAmortizationPPE</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.007575436904118685</v>
+        <v>0.007569495850394682</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>operatingExpenses</t>
+          <t>cashflowFromInvestment</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.007454795201129628</v>
+        <v>0.007502745323093692</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cashAndShortTermInvestments</t>
+          <t>paymentsForRepurchaseOfEquity</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.007376332091076801</v>
+        <v>0.007438740105322904</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>dividendPayout</t>
+          <t>otherNonCurrentAssets</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.007330327244214116</v>
+        <v>0.00742062609856891</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>netInterestIncome</t>
+          <t>totalCurrentAssets</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.00732926781442105</v>
+        <v>0.007303870278679082</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>currentLongTermDebt</t>
+          <t>acid_test_ratio</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.00723055817113605</v>
+        <v>0.007126441399586324</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>comprehensiveIncomeNetOfTax</t>
+          <t>totalCurrentLiabilities</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.007121500881579777</v>
+        <v>0.007121455954939669</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>incomeBeforeTax</t>
+          <t>profitLoss</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.006980793861471854</v>
+        <v>0.006892926883014754</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>totalNonCurrentLiabilities</t>
+          <t>netIncome</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.006965212564423582</v>
+        <v>0.006730095347458459</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>profitLoss</t>
+          <t>ebit</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.006860113186912353</v>
+        <v>0.006713145496489854</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>accumulatedDepreciationAmortizationPPE</t>
+          <t>treasuryStock</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.006773886501040092</v>
+        <v>0.006702505933297458</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>totalLiabilities</t>
+          <t>incomeBeforeTax</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.006709345522800809</v>
+        <v>0.006691241155659719</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ebit</t>
+          <t>currentLongTermDebt</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.006611303638596795</v>
+        <v>0.006655150555019573</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>longTermDebtNoncurrent</t>
+          <t>otherCurrentAssets</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.00650355856615107</v>
+        <v>0.006467075751259834</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>treasuryStock</t>
+          <t>currentAccountsPayable</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.006068504540983824</v>
+        <v>0.006403929330943776</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>interestAndDebtExpense</t>
+          <t>proceedsFromOperatingActivities</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.006054644352081639</v>
+        <v>0.006149564960727957</v>
       </c>
     </row>
   </sheetData>
